--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2461.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2461.xlsx
@@ -354,7 +354,7 @@
         <v>2.481019970816921</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>3.117134017459009</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2461.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2461.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.101927298269258</v>
+        <v>1.647016048431396</v>
       </c>
       <c r="B1">
-        <v>2.481019970816921</v>
+        <v>2.220998525619507</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.201782464981079</v>
       </c>
       <c r="D1">
-        <v>3.117134017459009</v>
+        <v>4.517483234405518</v>
       </c>
       <c r="E1">
-        <v>0.9486574230943077</v>
+        <v>0.6190973520278931</v>
       </c>
     </row>
   </sheetData>
